--- a/data/grant_companies.xlsx
+++ b/data/grant_companies.xlsx
@@ -14,64 +14,67 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
-  <si>
-    <t>Grant</t>
-  </si>
-  <si>
-    <t>Grant Company</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>A*STAR Industry Alignment Fund – Pre-Positioning (IAF-PP)</t>
-  </si>
-  <si>
-    <t>Startup SG Founder Grant</t>
-  </si>
-  <si>
-    <t>Enterprise Development Grant (EDG)</t>
-  </si>
-  <si>
-    <t>Productivity Solutions Grant (PSG)</t>
-  </si>
-  <si>
-    <t>Health and Biomedical Sciences Research Programme</t>
-  </si>
-  <si>
-    <t>A*STAR (Agency for Science, Technology and Research)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>Provider</t>
+  </si>
+  <si>
+    <t>Focus Area</t>
+  </si>
+  <si>
+    <t>Example Grants</t>
+  </si>
+  <si>
+    <t>A*STAR</t>
+  </si>
+  <si>
+    <t>NMRC (MOH)</t>
+  </si>
+  <si>
+    <t>National Research Foundation</t>
   </si>
   <si>
     <t>Enterprise Singapore</t>
   </si>
   <si>
-    <t>Infocomm Media Development Authority (IMDA)</t>
-  </si>
-  <si>
-    <t>Ministry of Health / A*STAR</t>
-  </si>
-  <si>
-    <t>https://www.a-star.edu.sg/Research/funding-opportunities/iaf-pp</t>
-  </si>
-  <si>
-    <t>https://www.enterprisesg.gov.sg/financial-assistance/grants/for-local-startups/startup-sg-founder</t>
-  </si>
-  <si>
-    <t>https://www.enterprisesg.gov.sg/financial-assistance/grants/for-local-companies/enterprise-development-grant</t>
-  </si>
-  <si>
-    <t>https://www.imda.gov.sg/psg</t>
-  </si>
-  <si>
-    <t>https://www.a-star.edu.sg/portfolios/health-and-biomedical-sciences</t>
+    <t>Temasek Foundation</t>
+  </si>
+  <si>
+    <t>Biomedical R&amp;D, diagnostics, ageing, precision medicine</t>
+  </si>
+  <si>
+    <t>Clinical &amp; translational research, health services</t>
+  </si>
+  <si>
+    <t>National-level R&amp;D, AI in healthcare</t>
+  </si>
+  <si>
+    <t>HealthTech/MedTech startups and product development</t>
+  </si>
+  <si>
+    <t>Community health, public health innovations</t>
+  </si>
+  <si>
+    <t>IAF-PP, SPF, HBMS Open Fund (IRG)</t>
+  </si>
+  <si>
+    <t>OF-IRG, HSRG, CSA</t>
+  </si>
+  <si>
+    <t>CRP, AI Singapore Grand Challenge</t>
+  </si>
+  <si>
+    <t>Startup SG Tech, EDG</t>
+  </si>
+  <si>
+    <t>Community Pilot Grants, Innovation Awards</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,13 +89,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -127,22 +123,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -459,8 +449,8 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
+      <c r="C2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -470,8 +460,8 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
+      <c r="C3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -479,10 +469,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -490,10 +480,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -501,20 +491,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>